--- a/biology/Botanique/Flore_de_la_Sardaigne/Flore_de_la_Sardaigne.xlsx
+++ b/biology/Botanique/Flore_de_la_Sardaigne/Flore_de_la_Sardaigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La flore de la Sardaigne bien qu'issue d'un substrat commun  méditerranéen, se caractérise par une spécificité et des endémismes propres à la Sardaigne. Cela est dû à l'adaptation à des conditions climatiques particulières, à l'insularité et à l'histoire géologique de l'île.
 La flore actuelle est encore caractérisée par des espèces qui se sont propagées au Cénozoïque, il y a 60 millions d'années, constituant des forêts primitives d'if, de chêne vert, de houx et de laurier-cerise, espèces mésophiles qui se sont bien adaptées au climat chaud et humide dépendant du plan équatorial passant par le sud de l'Europe. 
@@ -514,7 +526,9 @@
           <t>Écosystèmes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le contexte géologique et climatique particulier qui a longtemps affecté la Sardaigne a déterminé la co-évolution d'espèces typiquement méditerranéennes (sclérophylles persistantes) pour former de nombreuses associations végétales à partir des milieux côtiers jusqu'à ceux de montagne, en passant par la garrigue, les bois et les lagunes internes. Ces milieux sont à leur tour modulés par les conditions climatiques et pédologiques locales, créant çà et là des contextes nouveaux et typiques. De nombreuses associations sont aujourd'hui altérées par l'intervention humaine, notamment du fait de la déforestation sauvage des siècles derniers et de la pratique de l'écobuage pour générer des pâturages. Les principaux écosystèmes selon les critères de Massa et Schenk (1980) sont représentés par :
 .
@@ -560,9 +574,11 @@
           <t>Espèces botaniques en Sardaigne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des 2054 taxons qui composent la flore vasculaire de la Sardaigne[1], 1991 sont des Angiospermes, regroupés en 667 genres appartenant à 114 familles, 50 des  Ptéridophytes et 13 des Gymnospermes. De plus, sur les 695 genres présents dans l'île, 62 comprennent des espèces endémiques. S'il y a dix ans, il y avait 202 espèces endémiques[2], on en actuellement au moins une centaine de plus et d'autres sont encore à l'étude.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des 2054 taxons qui composent la flore vasculaire de la Sardaigne, 1991 sont des Angiospermes, regroupés en 667 genres appartenant à 114 familles, 50 des  Ptéridophytes et 13 des Gymnospermes. De plus, sur les 695 genres présents dans l'île, 62 comprennent des espèces endémiques. S'il y a dix ans, il y avait 202 espèces endémiques, on en actuellement au moins une centaine de plus et d'autres sont encore à l'étude.
 </t>
         </is>
       </c>
